--- a/new_data/train_data_최종1.xlsx
+++ b/new_data/train_data_최종1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D02971A-CEE5-495C-9556-7C1CACE3D1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D7E4E3-EF33-440C-970F-813EC0BC8EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3415CDFE-0950-4963-850C-4EADE02B7DBF}"/>
   </bookViews>
@@ -2270,14 +2270,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2691,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47977F29-552F-45B6-85DA-E4EB94E866DC}">
   <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7521,10 +7518,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B345" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C345" t="s">
         <v>66</v>
@@ -7535,10 +7532,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B346" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C346" t="s">
         <v>67</v>
@@ -7549,10 +7546,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B347" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C347" t="s">
         <v>68</v>
@@ -7563,7 +7560,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B348" t="s">
         <v>69</v>
@@ -7577,7 +7574,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B349" t="s">
         <v>69</v>
@@ -7591,7 +7588,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B350" t="s">
         <v>69</v>
@@ -7605,7 +7602,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B351" t="s">
         <v>69</v>
@@ -7619,7 +7616,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B352" t="s">
         <v>69</v>
@@ -7633,7 +7630,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B353" t="s">
         <v>69</v>
@@ -7647,7 +7644,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B354" t="s">
         <v>69</v>
@@ -7661,7 +7658,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B355" t="s">
         <v>69</v>
@@ -7675,7 +7672,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B356" t="s">
         <v>69</v>
@@ -7689,7 +7686,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="B357" t="s">
         <v>69</v>
@@ -7733,986 +7730,986 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>596</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>597</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>598</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>599</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>600</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>601</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>602</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>603</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>604</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>605</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>606</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>607</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>608</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>609</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>610</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>611</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>612</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>613</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>614</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>615</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>616</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>617</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>618</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>619</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>620</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>621</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>622</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>623</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>624</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>625</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>626</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>627</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>628</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>629</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>630</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>631</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>632</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>633</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>634</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>635</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>636</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>637</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>638</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>639</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>640</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>641</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>642</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>643</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>644</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>645</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>646</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>647</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>648</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>649</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>650</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>651</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>652</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>653</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>654</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>655</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>656</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>657</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>658</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>650</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>657</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>659</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>660</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>661</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>662</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>663</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>664</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>665</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>666</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>667</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>668</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>669</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>670</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>671</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>672</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>673</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>674</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>675</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>676</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>677</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>678</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>679</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>680</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>681</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>682</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>683</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>679</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>684</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>685</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>686</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>687</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>688</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>689</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>690</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>691</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>676</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>692</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>693</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>694</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>625</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>695</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>696</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>697</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>697</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>698</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>699</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>700</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" s="2" t="s">
+      <c r="A113" t="s">
         <v>701</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>702</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>703</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>704</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" s="2" t="s">
+      <c r="A117" t="s">
         <v>705</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>706</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="2" t="s">
+      <c r="A119" t="s">
         <v>707</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" s="2" t="s">
+      <c r="A120" t="s">
         <v>708</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>709</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A122" s="2" t="s">
+      <c r="A122" t="s">
         <v>710</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123" s="2" t="s">
+      <c r="A123" t="s">
         <v>711</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124" s="2" t="s">
+      <c r="A124" t="s">
         <v>624</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>26</v>
       </c>
     </row>
